--- a/data/trans_bre/P14_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>12,25%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,94</t>
+          <t>-4,4; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,26</t>
+          <t>-3,89; 4,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 137,76</t>
+          <t>-50,16; 136,13</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,82%</t>
+          <t>-55,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,39%</t>
+          <t>-27,76%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,72</t>
+          <t>-4,35; 0,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,06</t>
+          <t>-5,64; 0,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,06; 130,84</t>
+          <t>-85,29; 22,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 20,31</t>
+          <t>-56,55; 17,22</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,19%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>31,63%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,88</t>
+          <t>-1,59; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,08</t>
+          <t>-1,94; 6,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 204,89</t>
+          <t>-27,36; 185,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 60,08</t>
+          <t>-15,3; 94,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>-14,03%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,86</t>
+          <t>-0,07; 3,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,74</t>
+          <t>-5,39; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 84,65</t>
+          <t>-8,56; 347,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 27,58</t>
+          <t>-57,55; 56,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 1,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 1,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-28,64; 75,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-22,23; 30,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P14_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.218629011939195</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6132088947640141</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1146846915637671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 4,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-50,16; 136,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.344468429176056</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.948676345975077</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.5037461513182385</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.584686628298646</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.414376592211468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-55,19%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-27,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 0,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 0,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-85,29; 22,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-56,55; 17,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.036648388108886</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.983187357003177</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.5482370450056628</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2607000706374848</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>36,57%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>31,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.434867269697089</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.427571565614228</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.8587296763836554</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5543403744278474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 5,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 6,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-27,36; 185,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,3; 94,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1657695185354399</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.047279016521554</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1611554900173547</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1942224385471598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +712,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>96,1%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.816641204386805</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.991005867305334</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4073661470791461</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3216624377609313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 3,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 2,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 347,67</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-57,55; 56,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.337563760530722</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.862843504972038</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.260047122284395</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1629996230524855</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.426545209271467</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.917320083220645</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.026078132699164</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.9356156021519124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 1,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 1,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-28,64; 75,36</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-22,23; 30,28</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.6095313911131627</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2151003175490745</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1703280618018906</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.02795028442028072</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.313262658062423</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.92703420966108</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.5127831844994777</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2179609059643557</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.08233297122032</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.540988628047377</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4669540718532123</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4036468330940463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
